--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf2-Sdc4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf2-Sdc4.xlsx
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2151743333333333</v>
+        <v>0.313179</v>
       </c>
       <c r="H2">
-        <v>0.645523</v>
+        <v>0.939537</v>
       </c>
       <c r="I2">
-        <v>0.01945888736810517</v>
+        <v>0.02707464596575709</v>
       </c>
       <c r="J2">
-        <v>0.01945888736810517</v>
+        <v>0.0270746459657571</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.001642333333333</v>
+        <v>0.5373756666666667</v>
       </c>
       <c r="N2">
-        <v>9.004926999999999</v>
+        <v>1.612127</v>
       </c>
       <c r="O2">
-        <v>0.0516979599165158</v>
+        <v>0.007472820128982582</v>
       </c>
       <c r="P2">
-        <v>0.05169795991651582</v>
+        <v>0.007472820128982581</v>
       </c>
       <c r="Q2">
-        <v>0.645876387980111</v>
+        <v>0.168294773911</v>
       </c>
       <c r="R2">
-        <v>5.812887491820999</v>
+        <v>1.514652965199</v>
       </c>
       <c r="S2">
-        <v>0.001005984779176297</v>
+        <v>0.0002023239593579867</v>
       </c>
       <c r="T2">
-        <v>0.001005984779176297</v>
+        <v>0.0002023239593579867</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2151743333333333</v>
+        <v>0.313179</v>
       </c>
       <c r="H3">
-        <v>0.645523</v>
+        <v>0.939537</v>
       </c>
       <c r="I3">
-        <v>0.01945888736810517</v>
+        <v>0.02707464596575709</v>
       </c>
       <c r="J3">
-        <v>0.01945888736810517</v>
+        <v>0.0270746459657571</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>33.162845</v>
       </c>
       <c r="O3">
-        <v>0.1903903753498087</v>
+        <v>0.1537223653287423</v>
       </c>
       <c r="P3">
-        <v>0.1903903753498088</v>
+        <v>0.1537223653287423</v>
       </c>
       <c r="Q3">
-        <v>2.378597688103889</v>
+        <v>3.461968878085</v>
       </c>
       <c r="R3">
-        <v>21.407379192935</v>
+        <v>31.157719902765</v>
       </c>
       <c r="S3">
-        <v>0.003704784869903195</v>
+        <v>0.004161978618294472</v>
       </c>
       <c r="T3">
-        <v>0.003704784869903196</v>
+        <v>0.004161978618294471</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2151743333333333</v>
+        <v>0.313179</v>
       </c>
       <c r="H4">
-        <v>0.645523</v>
+        <v>0.939537</v>
       </c>
       <c r="I4">
-        <v>0.01945888736810517</v>
+        <v>0.02707464596575709</v>
       </c>
       <c r="J4">
-        <v>0.01945888736810517</v>
+        <v>0.0270746459657571</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>27.51115433333333</v>
+        <v>30.561198</v>
       </c>
       <c r="N4">
-        <v>82.533463</v>
+        <v>91.683594</v>
       </c>
       <c r="O4">
-        <v>0.4738307886277414</v>
+        <v>0.4249882340167162</v>
       </c>
       <c r="P4">
-        <v>0.4738307886277414</v>
+        <v>0.4249882340167161</v>
       </c>
       <c r="Q4">
-        <v>5.919694292905445</v>
+        <v>9.571125428442</v>
       </c>
       <c r="R4">
-        <v>53.277248636149</v>
+        <v>86.14012885597799</v>
       </c>
       <c r="S4">
-        <v>0.009220219947447667</v>
+        <v>0.01150640597561492</v>
       </c>
       <c r="T4">
-        <v>0.009220219947447667</v>
+        <v>0.01150640597561492</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.2151743333333333</v>
+        <v>0.313179</v>
       </c>
       <c r="H5">
-        <v>0.645523</v>
+        <v>0.939537</v>
       </c>
       <c r="I5">
-        <v>0.01945888736810517</v>
+        <v>0.02707464596575709</v>
       </c>
       <c r="J5">
-        <v>0.01945888736810517</v>
+        <v>0.0270746459657571</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.49405866666666</v>
+        <v>29.75783666666667</v>
       </c>
       <c r="N5">
-        <v>49.482176</v>
+        <v>89.27351</v>
       </c>
       <c r="O5">
-        <v>0.2840808761059341</v>
+        <v>0.4138165805255589</v>
       </c>
       <c r="P5">
-        <v>0.2840808761059341</v>
+        <v>0.4138165805255589</v>
       </c>
       <c r="Q5">
-        <v>3.549098077560888</v>
+        <v>9.31952952943</v>
       </c>
       <c r="R5">
-        <v>31.94188269804799</v>
+        <v>83.87576576487</v>
       </c>
       <c r="S5">
-        <v>0.00552789777157801</v>
+        <v>0.01120393741248972</v>
       </c>
       <c r="T5">
-        <v>0.005527897771578011</v>
+        <v>0.01120393741248972</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>24.231544</v>
       </c>
       <c r="I6">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817221</v>
       </c>
       <c r="J6">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817222</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.001642333333333</v>
+        <v>0.5373756666666667</v>
       </c>
       <c r="N6">
-        <v>9.004926999999999</v>
+        <v>1.612127</v>
       </c>
       <c r="O6">
-        <v>0.0516979599165158</v>
+        <v>0.007472820128982582</v>
       </c>
       <c r="P6">
-        <v>0.05169795991651582</v>
+        <v>0.007472820128982581</v>
       </c>
       <c r="Q6">
-        <v>24.24480942414311</v>
+        <v>4.340480703787556</v>
       </c>
       <c r="R6">
-        <v>218.203284817288</v>
+        <v>39.064326334088</v>
       </c>
       <c r="S6">
-        <v>0.03776250333441368</v>
+        <v>0.005218125442039288</v>
       </c>
       <c r="T6">
-        <v>0.03776250333441369</v>
+        <v>0.005218125442039288</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>24.231544</v>
       </c>
       <c r="I7">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817221</v>
       </c>
       <c r="J7">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817222</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>33.162845</v>
       </c>
       <c r="O7">
-        <v>0.1903903753498087</v>
+        <v>0.1537223653287423</v>
       </c>
       <c r="P7">
-        <v>0.1903903753498088</v>
+        <v>0.1537223653287423</v>
       </c>
       <c r="Q7">
         <v>89.28743753140891</v>
@@ -883,10 +883,10 @@
         <v>803.5869377826801</v>
       </c>
       <c r="S7">
-        <v>0.1390696498584769</v>
+        <v>0.1073413479365493</v>
       </c>
       <c r="T7">
-        <v>0.1390696498584769</v>
+        <v>0.1073413479365493</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>24.231544</v>
       </c>
       <c r="I8">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817221</v>
       </c>
       <c r="J8">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817222</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>27.51115433333333</v>
+        <v>30.561198</v>
       </c>
       <c r="N8">
-        <v>82.533463</v>
+        <v>91.683594</v>
       </c>
       <c r="O8">
-        <v>0.4738307886277414</v>
+        <v>0.4249882340167162</v>
       </c>
       <c r="P8">
-        <v>0.4738307886277414</v>
+        <v>0.4249882340167161</v>
       </c>
       <c r="Q8">
-        <v>222.2125822396524</v>
+        <v>246.848338009904</v>
       </c>
       <c r="R8">
-        <v>1999.913240156872</v>
+        <v>2221.635042089136</v>
       </c>
       <c r="S8">
-        <v>0.3461072112786932</v>
+        <v>0.296761045791678</v>
       </c>
       <c r="T8">
-        <v>0.3461072112786933</v>
+        <v>0.296761045791678</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>24.231544</v>
       </c>
       <c r="I9">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817221</v>
       </c>
       <c r="J9">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817222</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>16.49405866666666</v>
+        <v>29.75783666666667</v>
       </c>
       <c r="N9">
-        <v>49.482176</v>
+        <v>89.27351</v>
       </c>
       <c r="O9">
-        <v>0.2840808761059341</v>
+        <v>0.4138165805255589</v>
       </c>
       <c r="P9">
-        <v>0.2840808761059341</v>
+        <v>0.4138165805255589</v>
       </c>
       <c r="Q9">
-        <v>133.2255027733049</v>
+        <v>240.3594428443822</v>
       </c>
       <c r="R9">
-        <v>1199.029524959744</v>
+        <v>2163.23498559944</v>
       </c>
       <c r="S9">
-        <v>0.2075053841296043</v>
+        <v>0.2889600967114555</v>
       </c>
       <c r="T9">
-        <v>0.2075053841296043</v>
+        <v>0.2889600967114556</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.246363333333333</v>
+        <v>2.897745666666667</v>
       </c>
       <c r="H10">
-        <v>6.73909</v>
+        <v>8.693237</v>
       </c>
       <c r="I10">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="J10">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.001642333333333</v>
+        <v>0.5373756666666667</v>
       </c>
       <c r="N10">
-        <v>9.004926999999999</v>
+        <v>1.612127</v>
       </c>
       <c r="O10">
-        <v>0.0516979599165158</v>
+        <v>0.007472820128982582</v>
       </c>
       <c r="P10">
-        <v>0.05169795991651582</v>
+        <v>0.007472820128982581</v>
       </c>
       <c r="Q10">
-        <v>6.742779277381111</v>
+        <v>1.557178009455445</v>
       </c>
       <c r="R10">
-        <v>60.68501349642999</v>
+        <v>14.014602085099</v>
       </c>
       <c r="S10">
-        <v>0.01050221597913504</v>
+        <v>0.001872039237919684</v>
       </c>
       <c r="T10">
-        <v>0.01050221597913505</v>
+        <v>0.001872039237919684</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.246363333333333</v>
+        <v>2.897745666666667</v>
       </c>
       <c r="H11">
-        <v>6.73909</v>
+        <v>8.693237</v>
       </c>
       <c r="I11">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="J11">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>33.162845</v>
       </c>
       <c r="O11">
-        <v>0.1903903753498087</v>
+        <v>0.1537223653287423</v>
       </c>
       <c r="P11">
-        <v>0.1903903753498088</v>
+        <v>0.1537223653287423</v>
       </c>
       <c r="Q11">
-        <v>24.83193301233889</v>
+        <v>32.03249679769612</v>
       </c>
       <c r="R11">
-        <v>223.48739711105</v>
+        <v>288.292471179265</v>
       </c>
       <c r="S11">
-        <v>0.03867697768927819</v>
+        <v>0.03850946425501751</v>
       </c>
       <c r="T11">
-        <v>0.0386769776892782</v>
+        <v>0.0385094642550175</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.246363333333333</v>
+        <v>2.897745666666667</v>
       </c>
       <c r="H12">
-        <v>6.73909</v>
+        <v>8.693237</v>
       </c>
       <c r="I12">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="J12">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>27.51115433333333</v>
+        <v>30.561198</v>
       </c>
       <c r="N12">
-        <v>82.533463</v>
+        <v>91.683594</v>
       </c>
       <c r="O12">
-        <v>0.4738307886277414</v>
+        <v>0.4249882340167162</v>
       </c>
       <c r="P12">
-        <v>0.4738307886277414</v>
+        <v>0.4249882340167161</v>
       </c>
       <c r="Q12">
-        <v>61.80004835207445</v>
+        <v>88.558579072642</v>
       </c>
       <c r="R12">
-        <v>556.20043516867</v>
+        <v>797.027211653778</v>
       </c>
       <c r="S12">
-        <v>0.09625666637074914</v>
+        <v>0.1064651143746725</v>
       </c>
       <c r="T12">
-        <v>0.09625666637074916</v>
+        <v>0.1064651143746725</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.246363333333333</v>
+        <v>2.897745666666667</v>
       </c>
       <c r="H13">
-        <v>6.73909</v>
+        <v>8.693237</v>
       </c>
       <c r="I13">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="J13">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.49405866666666</v>
+        <v>29.75783666666667</v>
       </c>
       <c r="N13">
-        <v>49.482176</v>
+        <v>89.27351</v>
       </c>
       <c r="O13">
-        <v>0.2840808761059341</v>
+        <v>0.4138165805255589</v>
       </c>
       <c r="P13">
-        <v>0.2840808761059341</v>
+        <v>0.4138165805255589</v>
       </c>
       <c r="Q13">
-        <v>37.05164860664888</v>
+        <v>86.23064225020778</v>
       </c>
       <c r="R13">
-        <v>333.46483745984</v>
+        <v>776.07578025187</v>
       </c>
       <c r="S13">
-        <v>0.05770979592278456</v>
+        <v>0.1036664689734836</v>
       </c>
       <c r="T13">
-        <v>0.05770979592278457</v>
+        <v>0.1036664689734836</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.519176</v>
+        <v>0.2791366666666666</v>
       </c>
       <c r="H14">
-        <v>1.557528</v>
+        <v>0.83741</v>
       </c>
       <c r="I14">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142748</v>
       </c>
       <c r="J14">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142749</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.001642333333333</v>
+        <v>0.5373756666666667</v>
       </c>
       <c r="N14">
-        <v>9.004926999999999</v>
+        <v>1.612127</v>
       </c>
       <c r="O14">
-        <v>0.0516979599165158</v>
+        <v>0.007472820128982582</v>
       </c>
       <c r="P14">
-        <v>0.05169795991651582</v>
+        <v>0.007472820128982581</v>
       </c>
       <c r="Q14">
-        <v>1.558380660050666</v>
+        <v>0.1500012523411111</v>
       </c>
       <c r="R14">
-        <v>14.025425940456</v>
+        <v>1.35001127107</v>
       </c>
       <c r="S14">
-        <v>0.002427255823790785</v>
+        <v>0.0001803314896656242</v>
       </c>
       <c r="T14">
-        <v>0.002427255823790786</v>
+        <v>0.0001803314896656243</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.519176</v>
+        <v>0.2791366666666666</v>
       </c>
       <c r="H15">
-        <v>1.557528</v>
+        <v>0.83741</v>
       </c>
       <c r="I15">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142748</v>
       </c>
       <c r="J15">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142749</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>33.162845</v>
       </c>
       <c r="O15">
-        <v>0.1903903753498087</v>
+        <v>0.1537223653287423</v>
       </c>
       <c r="P15">
-        <v>0.1903903753498088</v>
+        <v>0.1537223653287423</v>
       </c>
       <c r="Q15">
-        <v>5.739117738573333</v>
+        <v>3.085655336827778</v>
       </c>
       <c r="R15">
-        <v>51.65205964716</v>
+        <v>27.77089803145</v>
       </c>
       <c r="S15">
-        <v>0.008938962932150494</v>
+        <v>0.00370957451888108</v>
       </c>
       <c r="T15">
-        <v>0.008938962932150496</v>
+        <v>0.00370957451888108</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.519176</v>
+        <v>0.2791366666666666</v>
       </c>
       <c r="H16">
-        <v>1.557528</v>
+        <v>0.83741</v>
       </c>
       <c r="I16">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142748</v>
       </c>
       <c r="J16">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142749</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>27.51115433333333</v>
+        <v>30.561198</v>
       </c>
       <c r="N16">
-        <v>82.533463</v>
+        <v>91.683594</v>
       </c>
       <c r="O16">
-        <v>0.4738307886277414</v>
+        <v>0.4249882340167162</v>
       </c>
       <c r="P16">
-        <v>0.4738307886277414</v>
+        <v>0.4249882340167161</v>
       </c>
       <c r="Q16">
-        <v>14.28313106216267</v>
+        <v>8.530750939059999</v>
       </c>
       <c r="R16">
-        <v>128.548179559464</v>
+        <v>76.77675845154</v>
       </c>
       <c r="S16">
-        <v>0.02224669103085137</v>
+        <v>0.01025566787475074</v>
       </c>
       <c r="T16">
-        <v>0.02224669103085137</v>
+        <v>0.01025566787475074</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.519176</v>
+        <v>0.2791366666666666</v>
       </c>
       <c r="H17">
-        <v>1.557528</v>
+        <v>0.83741</v>
       </c>
       <c r="I17">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142748</v>
       </c>
       <c r="J17">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142749</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.49405866666666</v>
+        <v>29.75783666666667</v>
       </c>
       <c r="N17">
-        <v>49.482176</v>
+        <v>89.27351</v>
       </c>
       <c r="O17">
-        <v>0.2840808761059341</v>
+        <v>0.4138165805255589</v>
       </c>
       <c r="P17">
-        <v>0.2840808761059341</v>
+        <v>0.4138165805255589</v>
       </c>
       <c r="Q17">
-        <v>8.563319402325332</v>
+        <v>8.306503334344443</v>
       </c>
       <c r="R17">
-        <v>77.06987462092798</v>
+        <v>74.7585300091</v>
       </c>
       <c r="S17">
-        <v>0.01333779828196727</v>
+        <v>0.009986077428130041</v>
       </c>
       <c r="T17">
-        <v>0.01333779828196727</v>
+        <v>0.009986077428130045</v>
       </c>
     </row>
   </sheetData>
